--- a/AP110_TestData_PaymentProcessRequest_21C_SubmitPPR.xlsx
+++ b/AP110_TestData_PaymentProcessRequest_21C_SubmitPPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Account Payables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D1C945-FF46-4E8F-AF0F-2CB7433AC938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1647170A-6E68-49C1-94DE-442AE34B5753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>URL</t>
   </si>
@@ -750,29 +750,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S2" sqref="Q2:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="17" customWidth="1"/>
-    <col min="2" max="7" width="8.7265625" style="17"/>
-    <col min="8" max="8" width="16.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.36328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.7265625" style="17"/>
-    <col min="17" max="17" width="31.36328125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="26.26953125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.1796875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="8.77734375" style="17" customWidth="1"/>
+    <col min="2" max="7" width="8.77734375" style="17"/>
+    <col min="8" max="8" width="16.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.77734375" style="17"/>
+    <col min="17" max="17" width="31.33203125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="26.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.21875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="16384" width="8.77734375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
@@ -868,15 +868,9 @@
       <c r="N2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O1:XFD1 J1:K1">
@@ -894,12 +888,9 @@
   <conditionalFormatting sqref="N1">
     <cfRule type="duplicateValues" dxfId="5" priority="42"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -911,9 +902,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -942,7 +933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1002,21 +993,21 @@
       <selection activeCell="H7" sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.26953125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.21875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
